--- a/LDMP/data/UrbanSummaryTable.xlsx
+++ b/LDMP/data/UrbanSummaryTable.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azvol\Code\LandDegradation\trends.earth\LDMP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{399B39B6-03A3-4B87-A303-066F4DE34E61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BB9EEA-3EEB-47FF-BA80-FC758C54E052}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDG 11.3.1 Summary Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="30">
   <si>
     <t>Analysis notes:</t>
   </si>
@@ -44,18 +42,9 @@
     <t>Trends.Earth SDG 11.3.1 summary table</t>
   </si>
   <si>
-    <t>Summary of urban and population changes</t>
-  </si>
-  <si>
-    <t>Urban Population</t>
-  </si>
-  <si>
     <t>Summary of population growth rate and land consumption</t>
   </si>
   <si>
-    <t>Percent of total land area</t>
-  </si>
-  <si>
     <t>2000-2005</t>
   </si>
   <si>
@@ -65,40 +54,92 @@
     <t>2010-2015</t>
   </si>
   <si>
-    <t>Urban population change</t>
-  </si>
-  <si>
     <t>SDG 11.3.1</t>
   </si>
   <si>
-    <t>Urban population growth rate</t>
-  </si>
-  <si>
-    <t>Total land area (sq km)</t>
-  </si>
-  <si>
-    <t>Urban Area (sq km)</t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
-    <t>Urban area change     (sq km)</t>
-  </si>
-  <si>
     <t>Land consumption     rate</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Suburban</t>
+  </si>
+  <si>
+    <t>Built-up rural</t>
+  </si>
+  <si>
+    <t>Open space
+(fringe)</t>
+  </si>
+  <si>
+    <t>Open space
+(captured)</t>
+  </si>
+  <si>
+    <t>Open space
+(rural)</t>
+  </si>
+  <si>
+    <t>Open space
+(fringe, water)</t>
+  </si>
+  <si>
+    <t>Open space
+(rural, water)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>City population change</t>
+  </si>
+  <si>
+    <t>City population growth rate</t>
+  </si>
+  <si>
+    <t>City area change
+(sq km)</t>
+  </si>
+  <si>
+    <t>Population (number of people) by year</t>
+  </si>
+  <si>
+    <t>Area (in hectares) of each land class by year</t>
+  </si>
+  <si>
+    <t>Consider this class to be part of the city?</t>
+  </si>
+  <si>
+    <t>Open space
+(captured, water)</t>
+  </si>
+  <si>
+    <t>Total population
+of city:</t>
+  </si>
+  <si>
+    <t>Total area
+of city:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +158,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -152,6 +186,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -162,36 +209,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAA93D7"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -228,36 +275,44 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,39 +324,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -316,54 +344,114 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,7 +519,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'SDG 11.3.1 Summary Table'!$A$8:$A$10</c:f>
+              <c:f>'SDG 11.3.1 Summary Table'!$A$6:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -448,18 +536,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SDG 11.3.1 Summary Table'!$C$8:$C$10</c:f>
+              <c:f>'SDG 11.3.1 Summary Table'!$C$6:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.6768486016630579E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9589317226432549E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1899975569579848E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -488,7 +576,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'SDG 11.3.1 Summary Table'!$A$8:$A$10</c:f>
+              <c:f>'SDG 11.3.1 Summary Table'!$A$6:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -505,18 +593,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SDG 11.3.1 Summary Table'!$E$8:$E$10</c:f>
+              <c:f>'SDG 11.3.1 Summary Table'!$E$6:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.1643989040510404E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8441426306562652E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8620168728134648E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,7 +649,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'SDG 11.3.1 Summary Table'!$A$8:$A$10</c:f>
+              <c:f>'SDG 11.3.1 Summary Table'!$A$6:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -578,18 +666,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SDG 11.3.1 Summary Table'!$F$8:$F$10</c:f>
+              <c:f>'SDG 11.3.1 Summary Table'!$F$6:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0635091725375909</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5818210593299133</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68305931779381313</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,50 +1601,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2838450" cy="561975"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1576,7 +1631,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1885,24 +1940,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="21.140625" style="8" customWidth="1"/>
-    <col min="3" max="6" width="21.140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="15.6328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="16.6328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1910,384 +1967,588 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="51">
+        <f>C46-B46</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="45" t="e">
+        <f>(LN(C46/B46))/5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="52">
+        <f>C32-B32</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="45" t="e">
+        <f>(LN(C32/B32))/5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="53" t="e">
+        <f>E6/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="51">
+        <f>D46-C46</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="45" t="e">
+        <f>(LN(D46/C46))/5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="52">
+        <f>D32-C32</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="45" t="e">
+        <f>(LN(D32/C32))/5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="53" t="e">
+        <f>E7/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="33" t="s">
+      <c r="B8" s="51">
+        <f>E46-D46</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="45" t="e">
+        <f>(LN(E46/D46))/5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="52">
+        <f>E32-D32</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="45" t="e">
+        <f>(LN(E32/D32))/5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="53" t="e">
+        <f>E8/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" s="20" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="50"/>
+      <c r="B22" s="30">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="30">
+        <v>2005</v>
+      </c>
+      <c r="D22" s="31">
+        <v>2010</v>
+      </c>
+      <c r="E22" s="31">
+        <v>2015</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="32">
-        <v>3450002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="48">
+        <f>SUMIF($F$23:$F$31,"Yes",B23:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="48">
+        <f>SUMIF($F$23:$F$31,"Yes",C23:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="48">
+        <f>SUMIF($F$23:$F$31,"Yes",D23:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="48">
+        <f>SUMIF($F$23:$F$31,"Yes",E23:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="10"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" s="18" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" s="18" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="30">
+        <v>2000</v>
+      </c>
+      <c r="C36" s="30">
+        <v>2005</v>
+      </c>
+      <c r="D36" s="31">
+        <v>2010</v>
+      </c>
+      <c r="E36" s="31">
+        <v>2015</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="19"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="19"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="19"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="19"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="19"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="19"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="19"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="19"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="22">
-        <f>B26-B25</f>
-        <v>90000</v>
-      </c>
-      <c r="C8" s="20">
-        <f>(LN(B26/B25))/5</f>
-        <v>7.6768486016630579E-3</v>
-      </c>
-      <c r="D8" s="19">
-        <f>C26-C25</f>
-        <v>500</v>
-      </c>
-      <c r="E8" s="20">
-        <f>(LN(C26/C25))/5</f>
-        <v>8.1643989040510404E-3</v>
-      </c>
-      <c r="F8" s="24">
-        <f>E8/C8</f>
-        <v>1.0635091725375909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="22">
-        <f>B27-B26</f>
-        <v>60000</v>
-      </c>
-      <c r="C9" s="20">
-        <f>(LN(B27/B26))/5</f>
-        <v>4.9589317226432549E-3</v>
-      </c>
-      <c r="D9" s="19">
-        <f>C27-C26</f>
-        <v>500</v>
-      </c>
-      <c r="E9" s="20">
-        <f>(LN(C27/C26))/5</f>
-        <v>7.8441426306562652E-3</v>
-      </c>
-      <c r="F9" s="24">
-        <f>E9/C9</f>
-        <v>1.5818210593299133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="22">
-        <f>B28-B27</f>
-        <v>571000</v>
-      </c>
-      <c r="C10" s="20">
-        <f>(LN(B28/B27))/5</f>
-        <v>4.1899975569579848E-2</v>
-      </c>
-      <c r="D10" s="19">
-        <f>C28-C27</f>
-        <v>2000</v>
-      </c>
-      <c r="E10" s="20">
-        <f>(LN(C28/C27))/5</f>
-        <v>2.8620168728134648E-2</v>
-      </c>
-      <c r="F10" s="24">
-        <f>E10/C10</f>
-        <v>0.68305931779381313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="29"/>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-    </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="19"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="47">
+        <f>SUMIF($F$23:$F$31,"Yes",B37:B45)</f>
         <v>0</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>2000</v>
-      </c>
-      <c r="B25" s="16">
-        <v>2300000</v>
-      </c>
-      <c r="C25" s="16">
-        <v>12000</v>
-      </c>
-      <c r="D25" s="18">
-        <f>C25/F$5</f>
-        <v>3.4782588531832737E-3</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B26" s="16">
-        <v>2390000</v>
-      </c>
-      <c r="C26" s="16">
-        <v>12500</v>
-      </c>
-      <c r="D26" s="18">
-        <f>C26/F$5</f>
-        <v>3.6231863053992432E-3</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B27" s="16">
-        <v>2450000</v>
-      </c>
-      <c r="C27" s="16">
-        <v>13000</v>
-      </c>
-      <c r="D27" s="18">
-        <f>C27/F$5</f>
-        <v>3.7681137576152128E-3</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B28" s="16">
-        <v>3021000</v>
-      </c>
-      <c r="C28" s="16">
-        <v>15000</v>
-      </c>
-      <c r="D28" s="18">
-        <f>C28/F$5</f>
-        <v>4.3478235664790917E-3</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="13" t="str">
-        <f>IF(ISBLANK(B29),"",#REF!+B29)</f>
-        <v/>
-      </c>
-      <c r="D29" s="13" t="str">
-        <f>IF(ISBLANK(F29),"",#REF!+F29)</f>
-        <v/>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="C46" s="47">
+        <f t="shared" ref="C46:E46" si="0">SUMIF($F$23:$F$31,"Yes",C37:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="9"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-    </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="B31:F32"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="B48:F49"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A20:F20"/>
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LDMP/data/UrbanSummaryTable.xlsx
+++ b/LDMP/data/UrbanSummaryTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azvol\Code\LandDegradation\trends.earth\LDMP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BB9EEA-3EEB-47FF-BA80-FC758C54E052}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF07D82A-F505-4C92-A117-AEEB8A7F673B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDG 11.3.1 Summary Table" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Analysis notes:</t>
   </si>
@@ -137,7 +137,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -227,13 +227,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,6 +327,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,6 +355,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,37 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,44 +442,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,8 +457,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFAA93D7"/>
-      <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
   <extLst>
@@ -508,7 +508,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="AA93D7"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -565,7 +568,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1942,22 +1945,21 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="7" customWidth="1"/>
-    <col min="3" max="5" width="16.6328125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="18.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="7" customWidth="1"/>
+    <col min="3" max="6" width="21.19921875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.53125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.19921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1967,576 +1969,576 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="39">
         <f>C46-B46</f>
         <v>0</v>
       </c>
-      <c r="C6" s="45" t="e">
+      <c r="C6" s="33" t="e">
         <f>(LN(C46/B46))/5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="40">
         <f>C32-B32</f>
         <v>0</v>
       </c>
-      <c r="E6" s="45" t="e">
+      <c r="E6" s="33" t="e">
         <f>(LN(C32/B32))/5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="53" t="e">
+      <c r="F6" s="41" t="e">
         <f>E6/C6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="39">
         <f>D46-C46</f>
         <v>0</v>
       </c>
-      <c r="C7" s="45" t="e">
+      <c r="C7" s="33" t="e">
         <f>(LN(D46/C46))/5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="40">
         <f>D32-C32</f>
         <v>0</v>
       </c>
-      <c r="E7" s="45" t="e">
+      <c r="E7" s="33" t="e">
         <f>(LN(D32/C32))/5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="53" t="e">
+      <c r="F7" s="41" t="e">
         <f>E7/C7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="39">
         <f>E46-D46</f>
         <v>0</v>
       </c>
-      <c r="C8" s="45" t="e">
+      <c r="C8" s="33" t="e">
         <f>(LN(E46/D46))/5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="40">
         <f>E32-D32</f>
         <v>0</v>
       </c>
-      <c r="E8" s="45" t="e">
+      <c r="E8" s="33" t="e">
         <f>(LN(E32/D32))/5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="53" t="e">
+      <c r="F8" s="41" t="e">
         <f>E8/C8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:8" s="20" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="50"/>
-      <c r="B22" s="30">
+    <row r="22" spans="1:8" s="21" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="38"/>
+      <c r="B22" s="23">
         <v>2000</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="23">
         <v>2005</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="24">
         <v>2010</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="24">
         <v>2015</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="49" t="s">
+    <row r="23" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="32" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="49" t="s">
+    <row r="24" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="32" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="49" t="s">
+    <row r="25" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="32" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="49" t="s">
+    <row r="26" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="32" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="32" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="49" t="s">
+    <row r="28" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="32" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49" t="s">
+    <row r="29" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="32" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49" t="s">
+    <row r="30" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="33" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49" t="s">
+    <row r="31" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="34" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="36">
         <f>SUMIF($F$23:$F$31,"Yes",B23:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="48">
-        <f>SUMIF($F$23:$F$31,"Yes",C23:C31)</f>
+      <c r="C32" s="36">
+        <f t="shared" ref="C32" si="0">SUMIF($F$23:$F$31,"Yes",C23:C31)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="48">
-        <f>SUMIF($F$23:$F$31,"Yes",D23:D31)</f>
+      <c r="D32" s="36">
+        <f t="shared" ref="D32" si="1">SUMIF($F$23:$F$31,"Yes",D23:D31)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="48">
-        <f>SUMIF($F$23:$F$31,"Yes",E23:E31)</f>
+      <c r="E32" s="36">
+        <f t="shared" ref="E32" si="2">SUMIF($F$23:$F$31,"Yes",E23:E31)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="19"/>
+      <c r="F32" s="20"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B33" s="10"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" s="18" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" s="18" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="30">
+    <row r="36" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="23">
         <v>2000</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="23">
         <v>2005</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="24">
         <v>2010</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="24">
         <v>2015</v>
       </c>
-      <c r="F36" s="19"/>
+      <c r="F36" s="20"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="49" t="s">
+    <row r="37" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="19"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="20"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49" t="s">
+    <row r="38" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="19"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="20"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="49" t="s">
+    <row r="39" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="19"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="20"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="49" t="s">
+    <row r="40" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="19"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="20"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="49" t="s">
+    <row r="41" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="19"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="20"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="49" t="s">
+    <row r="42" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="19"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="20"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="49" t="s">
+    <row r="43" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="19"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="20"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="49" t="s">
+    <row r="44" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="19"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="20"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="49" t="s">
+    <row r="45" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="19"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="20"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="46" t="s">
+    <row r="46" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="35">
         <f>SUMIF($F$23:$F$31,"Yes",B37:B45)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="47">
-        <f t="shared" ref="C46:E46" si="0">SUMIF($F$23:$F$31,"Yes",C37:C45)</f>
+      <c r="C46" s="35">
+        <f t="shared" ref="C46:E46" si="3">SUMIF($F$23:$F$31,"Yes",C37:C45)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="47">
-        <f t="shared" si="0"/>
+      <c r="D46" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E46" s="47">
-        <f t="shared" si="0"/>
+      <c r="E46" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F46" s="19"/>
+      <c r="F46" s="20"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+    <row r="47" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="48"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="9"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-    </row>
-    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+    </row>
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="24" t="s">
+    <row r="51" spans="1:6" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="24" t="s">
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
